--- a/CSVs/xlsx/task16.xlsx
+++ b/CSVs/xlsx/task16.xlsx
@@ -2,14 +2,14 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Data\Stuff\OpenMP\CSVs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nikita\source\repos\Univ\OpenMP\Lab1\CSVs\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7635"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7640"/>
   </bookViews>
   <sheets>
     <sheet name="task11" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -576,7 +576,7 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -672,31 +672,31 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>0.53578700000000001</c:v>
+                  <c:v>0.65877399999999997</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.39985799999999999</c:v>
+                  <c:v>0.40362700000000001</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.62565199999999999</c:v>
+                  <c:v>0.70570699999999997</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.7096899999999999</c:v>
+                  <c:v>1.2245299999999999</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.1773</c:v>
+                  <c:v>1.60256</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.94983</c:v>
+                  <c:v>2.37995</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.9551099999999999</c:v>
+                  <c:v>3.19787</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{0000000C-5A49-4B2A-A5F6-542E0EDBE447}"/>
             </c:ext>
@@ -769,31 +769,31 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>48.829099999999997</c:v>
+                  <c:v>65.486500000000007</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>17.173500000000001</c:v>
+                  <c:v>20.985600000000002</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>16.1023</c:v>
+                  <c:v>20.214600000000001</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>15.2226</c:v>
+                  <c:v>20.014500000000002</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>16.481000000000002</c:v>
+                  <c:v>20.1724</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>17.3566</c:v>
+                  <c:v>20.575199999999999</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>18.3538</c:v>
+                  <c:v>21.059799999999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{0000000D-5A49-4B2A-A5F6-542E0EDBE447}"/>
             </c:ext>
@@ -866,31 +866,31 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>196.97800000000001</c:v>
+                  <c:v>232.417</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>63.090400000000002</c:v>
+                  <c:v>77.588499999999996</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>55.801600000000001</c:v>
+                  <c:v>70.882599999999996</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>55.186500000000002</c:v>
+                  <c:v>72.512500000000003</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>57.502899999999997</c:v>
+                  <c:v>72.307699999999997</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>55.952199999999998</c:v>
+                  <c:v>72.961699999999993</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>56.401499999999999</c:v>
+                  <c:v>73.591099999999997</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{0000000E-5A49-4B2A-A5F6-542E0EDBE447}"/>
             </c:ext>
@@ -963,31 +963,31 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>820.89</c:v>
+                  <c:v>861.98400000000004</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>252.47499999999999</c:v>
+                  <c:v>309.35199999999998</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>216.50200000000001</c:v>
+                  <c:v>266.80700000000002</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>223.565</c:v>
+                  <c:v>287.32600000000002</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>223.792</c:v>
+                  <c:v>264.58800000000002</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>219.32499999999999</c:v>
+                  <c:v>266.27300000000002</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>221.55799999999999</c:v>
+                  <c:v>268.09300000000002</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{0000000F-5A49-4B2A-A5F6-542E0EDBE447}"/>
             </c:ext>
@@ -1060,31 +1060,31 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>1869.43</c:v>
+                  <c:v>1935.05</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>577.81899999999996</c:v>
+                  <c:v>671.70699999999999</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>485.45499999999998</c:v>
+                  <c:v>590.11699999999996</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>482.03500000000003</c:v>
+                  <c:v>588.01</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>491.83199999999999</c:v>
+                  <c:v>590.58299999999997</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>482.61799999999999</c:v>
+                  <c:v>591.81100000000004</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>493.33</c:v>
+                  <c:v>604.24699999999996</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000010-5A49-4B2A-A5F6-542E0EDBE447}"/>
             </c:ext>
@@ -1157,31 +1157,31 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>3293.26</c:v>
+                  <c:v>3443.47</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1009.61</c:v>
+                  <c:v>1191.82</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>867.95</c:v>
+                  <c:v>1039.55</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>865.30700000000002</c:v>
+                  <c:v>1041.6300000000001</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>847.06700000000001</c:v>
+                  <c:v>1022.76</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>881.899</c:v>
+                  <c:v>1024.72</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>845.423</c:v>
+                  <c:v>1044.6400000000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000011-5A49-4B2A-A5F6-542E0EDBE447}"/>
             </c:ext>
@@ -1260,31 +1260,31 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>5131.7700000000004</c:v>
+                  <c:v>5358.35</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1546.11</c:v>
+                  <c:v>1869.47</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1335.92</c:v>
+                  <c:v>1633.33</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1323.5</c:v>
+                  <c:v>1608.1</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1314.01</c:v>
+                  <c:v>1588.82</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1318.4</c:v>
+                  <c:v>1611.03</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1318.51</c:v>
+                  <c:v>1595.73</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000012-5A49-4B2A-A5F6-542E0EDBE447}"/>
             </c:ext>
@@ -1298,11 +1298,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="389261544"/>
-        <c:axId val="389260232"/>
+        <c:axId val="-1139884624"/>
+        <c:axId val="-1139881904"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="389261544"/>
+        <c:axId val="-1139884624"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1374,7 +1374,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="uk-UA"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -1412,15 +1412,15 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="uk-UA"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="389260232"/>
+        <c:crossAx val="-1139881904"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="389260232"/>
+        <c:axId val="-1139881904"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1498,7 +1498,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="uk-UA"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -1536,10 +1536,10 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="uk-UA"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="389261544"/>
+        <c:crossAx val="-1139884624"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1579,7 +1579,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="uk-UA"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -1609,7 +1609,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="uk-UA"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -2476,13 +2476,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="E27" sqref="E27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A1">
         <v>1</v>
       </c>
@@ -2505,165 +2505,165 @@
         <v>44</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A2">
-        <v>0.53578700000000001</v>
+        <v>0.65877399999999997</v>
       </c>
       <c r="B2">
-        <v>0.39985799999999999</v>
+        <v>0.40362700000000001</v>
       </c>
       <c r="C2">
-        <v>0.62565199999999999</v>
+        <v>0.70570699999999997</v>
       </c>
       <c r="D2">
-        <v>1.7096899999999999</v>
+        <v>1.2245299999999999</v>
       </c>
       <c r="E2">
-        <v>1.1773</v>
+        <v>1.60256</v>
       </c>
       <c r="F2">
-        <v>1.94983</v>
+        <v>2.37995</v>
       </c>
       <c r="G2">
-        <v>1.9551099999999999</v>
+        <v>3.19787</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A3">
-        <v>48.829099999999997</v>
+        <v>65.486500000000007</v>
       </c>
       <c r="B3">
-        <v>17.173500000000001</v>
+        <v>20.985600000000002</v>
       </c>
       <c r="C3">
-        <v>16.1023</v>
+        <v>20.214600000000001</v>
       </c>
       <c r="D3">
-        <v>15.2226</v>
+        <v>20.014500000000002</v>
       </c>
       <c r="E3">
-        <v>16.481000000000002</v>
+        <v>20.1724</v>
       </c>
       <c r="F3">
-        <v>17.3566</v>
+        <v>20.575199999999999</v>
       </c>
       <c r="G3">
-        <v>18.3538</v>
+        <v>21.059799999999999</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A4">
-        <v>196.97800000000001</v>
+        <v>232.417</v>
       </c>
       <c r="B4">
-        <v>63.090400000000002</v>
+        <v>77.588499999999996</v>
       </c>
       <c r="C4">
-        <v>55.801600000000001</v>
+        <v>70.882599999999996</v>
       </c>
       <c r="D4">
-        <v>55.186500000000002</v>
+        <v>72.512500000000003</v>
       </c>
       <c r="E4">
-        <v>57.502899999999997</v>
+        <v>72.307699999999997</v>
       </c>
       <c r="F4">
-        <v>55.952199999999998</v>
+        <v>72.961699999999993</v>
       </c>
       <c r="G4">
-        <v>56.401499999999999</v>
+        <v>73.591099999999997</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A5">
-        <v>820.89</v>
+        <v>861.98400000000004</v>
       </c>
       <c r="B5">
-        <v>252.47499999999999</v>
+        <v>309.35199999999998</v>
       </c>
       <c r="C5">
-        <v>216.50200000000001</v>
+        <v>266.80700000000002</v>
       </c>
       <c r="D5">
-        <v>223.565</v>
+        <v>287.32600000000002</v>
       </c>
       <c r="E5">
-        <v>223.792</v>
+        <v>264.58800000000002</v>
       </c>
       <c r="F5">
-        <v>219.32499999999999</v>
+        <v>266.27300000000002</v>
       </c>
       <c r="G5">
-        <v>221.55799999999999</v>
+        <v>268.09300000000002</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A6">
-        <v>1869.43</v>
+        <v>1935.05</v>
       </c>
       <c r="B6">
-        <v>577.81899999999996</v>
+        <v>671.70699999999999</v>
       </c>
       <c r="C6">
-        <v>485.45499999999998</v>
+        <v>590.11699999999996</v>
       </c>
       <c r="D6">
-        <v>482.03500000000003</v>
+        <v>588.01</v>
       </c>
       <c r="E6">
-        <v>491.83199999999999</v>
+        <v>590.58299999999997</v>
       </c>
       <c r="F6">
-        <v>482.61799999999999</v>
+        <v>591.81100000000004</v>
       </c>
       <c r="G6">
-        <v>493.33</v>
+        <v>604.24699999999996</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A7">
-        <v>3293.26</v>
+        <v>3443.47</v>
       </c>
       <c r="B7">
-        <v>1009.61</v>
+        <v>1191.82</v>
       </c>
       <c r="C7">
-        <v>867.95</v>
+        <v>1039.55</v>
       </c>
       <c r="D7">
-        <v>865.30700000000002</v>
+        <v>1041.6300000000001</v>
       </c>
       <c r="E7">
-        <v>847.06700000000001</v>
+        <v>1022.76</v>
       </c>
       <c r="F7">
-        <v>881.899</v>
+        <v>1024.72</v>
       </c>
       <c r="G7">
-        <v>845.423</v>
+        <v>1044.6400000000001</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A8">
-        <v>5131.7700000000004</v>
+        <v>5358.35</v>
       </c>
       <c r="B8">
-        <v>1546.11</v>
+        <v>1869.47</v>
       </c>
       <c r="C8">
-        <v>1335.92</v>
+        <v>1633.33</v>
       </c>
       <c r="D8">
-        <v>1323.5</v>
+        <v>1608.1</v>
       </c>
       <c r="E8">
-        <v>1314.01</v>
+        <v>1588.82</v>
       </c>
       <c r="F8">
-        <v>1318.4</v>
+        <v>1611.03</v>
       </c>
       <c r="G8">
-        <v>1318.51</v>
+        <v>1595.73</v>
       </c>
     </row>
   </sheetData>
